--- a/example_resources/raw/transactions.xlsx
+++ b/example_resources/raw/transactions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narek/projects/own_projects/Personal_Finance/persfinance_data/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narek/projects/own_projects/Personal_Finance/personalfinance_class/example_resources/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DB976F-A398-D64A-BC14-311149C7719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7487AF-80A6-3D4B-AA06-3BD4B7C8CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="107">
   <si>
     <t>DATE</t>
   </si>
@@ -50,63 +50,39 @@
     <t>2023001Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. STARTING_BALANCE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>Checkings</t>
   </si>
   <si>
     <t>2023001Checkings2</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. TO BE19 0000 0000 0000 Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023002Checkings1</t>
   </si>
   <si>
     <t>GIFT</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. ONLINE_STORE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023003Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. ONLINE_STORE_B Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023003Checkings2</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CLOTHING-STORE-A Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023005Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. FROM BE19 0000 0000 0000 Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023005Checkings2</t>
   </si>
   <si>
     <t>2023006Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. COFFEE_HOUSE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023008Checkings1</t>
   </si>
   <si>
     <t>2023008Checkings2</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. TRAIN Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023008Checkings3</t>
   </si>
   <si>
@@ -116,33 +92,21 @@
     <t>2023009Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. SCHOOL Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023010Checkings1</t>
   </si>
   <si>
     <t>2023010Checkings2</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. MOBILE-PROVIDER Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023011Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. SANDWICH-STORE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023012Checkings1</t>
   </si>
   <si>
     <t>2023013Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. SUPERMARKET Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023014Checkings1</t>
   </si>
   <si>
@@ -155,60 +119,33 @@
     <t>2023020Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CHARITY_EVENT Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023020Checkings2</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. SANDWICH-STORE-B Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023021Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CLOTHING-STORE-B Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023022Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. BAR Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023023Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. RESTAURANT Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023025Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. REPAYMENT-FRIEND-RESTAURANT Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023031Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. WAGE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023031Checkings2</t>
   </si>
   <si>
     <t>2023036Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. THEATER Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023037Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CLOTHING-STORE-C Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023037Checkings2</t>
   </si>
   <si>
@@ -218,54 +155,30 @@
     <t>2023041Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CLUB-MEMBERSHIP Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023041Checkings2</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. REPAYMENT-TICKET Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023042Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. TICKET Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023043Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. RESTAURANT-B Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023044Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. REFUND CLOTHING-STORE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023044Checkings2</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. OTHER-INCOME Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023001Savings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. FROM BE79 0000 0000 0000 Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>Savings</t>
   </si>
   <si>
     <t>2023003Savings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. TO BE79 0000 0000 0000 Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>2023005Savings1</t>
   </si>
   <si>
@@ -275,9 +188,6 @@
     <t>2023008Savings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. INTREST Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>20231121Cash1</t>
   </si>
   <si>
@@ -293,9 +203,6 @@
     <t>20231121Checkings1</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CASH-WITHDRAWL Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
-  </si>
-  <si>
     <t>TRANSACTION_ID</t>
   </si>
   <si>
@@ -369,6 +276,84 @@
   </si>
   <si>
     <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet STARTING_BALANCE Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet TO BE19 0000 0000 0000 Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet FROM BE19 0000 0000 0000 Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet SCHOOL Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet SUPERMARKET Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet CHARITY_EVENT Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet WAGE Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet CLUB-MEMBERSHIP Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet FROM BE79 0000 0000 0000 Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet TO BE79 0000 0000 0000 Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet INTREST Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet CASH-WITHDRAWL Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet ZARA Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet AMAZON Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet COOLBLUE Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet CUPERUS-ANTWERP Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet NMBS Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet BASE Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet PONCHIK-MONCHIK Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet NIGHTHAWKS-BAR Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet BOZAR Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet REPAYMENT-FRIEND-BOZAR Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet ANTWERP-OPERA Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet REPAYMENT-ANTWERP-OPERA Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet REFUND ZARA Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet TEACHING-GIG Lorem ipsum dolor sit amet</t>
   </si>
 </sst>
 </file>
@@ -741,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -775,798 +760,798 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>4500</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>-4000</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>-10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>-300</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>-80</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>-100</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>500</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>-20</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>-30</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>-10</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>-50.5</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>-20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>-50</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>-10</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>-10</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>-5</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>-5</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>-10</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>-10</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>-30</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>-20</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>-300</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>-20</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>-60</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>1500</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>-1500</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C31">
         <v>-30</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>-100</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>-20</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>-20</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>-10</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>-30</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>-50</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>1000</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>-500</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C44">
         <v>-200</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C45">
         <v>5.5</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>-100</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>-50.5</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
